--- a/dev_test/Master.xlsx
+++ b/dev_test/Master.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\GitHub\tests\dev_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C4A1D-D287-4421-80EB-D741D71C5123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dev_test/Master.xlsx
+++ b/dev_test/Master.xlsx
@@ -1,38 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\GitHub\tests\dev_test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C4A1D-D287-4421-80EB-D741D71C5123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,24 +47,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -331,15 +389,2729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>